--- a/vacancyxls.xlsx
+++ b/vacancyxls.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Jobs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jobs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,64 +401,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Junior python-разработчик</t>
+          <t>Junior Quantitative Researcher</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BR Lab</t>
+          <t>ООО КВАНТПОРТРУС</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>40 000-80 000 руб.</t>
+          <t>250 000-250 000 руб.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/35214048?query=Junior%20python%20developer</t>
+          <t>https://pushkino.hh.ru/vacancy/31844648?query=Junior%20python%20developer</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Поддержка и доработка существующих парсеров, разработка новых. - Разработка backend (Python, Django) и REST API. - Оптимизация и рефакторинг кода.</t>
+          <t>Working with large and complex datasets to build quantitative models which predict future price movements. Applying modern mathematical and statistical...</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>...паттернов разработки и принципов ООП. Будет плюсом: - Умение работать с Git. - Опыт работы с DRF. - Опыт написания тестов. - Опыт разработки...</t>
+          <t xml:space="preserve">Strong knowledge of probability, statistics, optimization, numerical methods. Good programming skills in Python (numpy, sklearn, pandas, matplotlib, etc.). </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Junior Quantitative Researcher</t>
+          <t>Junior Java Developer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ООО КВАНТПОРТРУС</t>
+          <t xml:space="preserve"> Группа компаний SRG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250 000-250 000 руб.</t>
+          <t>40 000-80 000 руб.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/31844648?query=Junior%20python%20developer</t>
+          <t>https://pushkino.hh.ru/vacancy/34234828?query=Junior%20python%20developer</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Working with large and complex datasets to build quantitative models which predict future price movements. Applying modern mathematical and statistical...</t>
+          <t>Писать новый и поддерживать старый код скачивания парсинга сайтов жилой и коммерческой недвижимости. Участвовать в написании продуктов по оценке жилой...</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Strong knowledge of probability, statistics, optimization, numerical methods. Good programming skills in Python (numpy, sklearn, pandas, matplotlib, etc.). </t>
+          <t>Опыт работы Java разработчиком от 0,5 года или курсы по Java. Java core. Linux, опыт написания скриптов (perl, python...</t>
         </is>
       </c>
     </row>
@@ -529,32 +529,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Разработчик Python (middle / junior)</t>
+          <t>Программист-разработчик Python (junior)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ООО Инспектор Клауд</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>70 000-160 000 руб.</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Ростелеком - Центры обработки данных</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/35249707?query=Junior%20python%20developer</t>
+          <t>https://pushkino.hh.ru/vacancy/35028427?query=Junior%20python%20developer</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>...различных сервисов компании. Проектирование и разработка новых модулей ПО. Сотрудничество с командами DevOps, компьютерного зрения, фронтенда, мобильной разработки, клиентской поддержки.</t>
+          <t xml:space="preserve">Участие во всех процессах разработки, вклад в разрабатываемый продукт. Участие в обсуждении архитектуры продукта. Разработка backend и frontend на python. </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Python, Django, SQL, REST APIs. Опыт проектирования ПО, сложившееся понимание качества ПО. Опыт разработки SaaS сервисов -- плюс.</t>
+          <t>Знание Python 3.5+. Умение писать простые SQL-запросы. Желательно иметь опыт разработки веб-приложений. Опыт работы с Django...</t>
         </is>
       </c>
     </row>
@@ -593,148 +589,148 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Junior Data scientist</t>
+          <t>Blockchain Developer (Junior)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ООО МФК Займ Онлайн</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t xml:space="preserve"> LATOKEN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2 000-3 000 USD</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/35218725?query=Junior%20python%20developer</t>
+          <t>https://pushkino.hh.ru/vacancy/33842832?query=Junior%20python%20developer</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Несколько сайтов с посещаемостью около 1 млн. посещений в месяц. Большое количество партнеров (телеком операторы, банки, интернет-магазины, онлайн кассы...</t>
+          <t>...cross-chain/atomic swaps implementation and LA blockchain development or trading team for development high-frequency liquidity and hedging systems.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Уверенный пользователь Excel, SQL. Владением одним или несколькими программами (R, Knime, Python). Знание основ теории вероятности, математической статистики, методов анализа...</t>
+          <t>Experience in one of C++/Python/Go/C#/Node.js. You want to create world-changing products. Understanding the base concepts...</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Веб-программист (Junior)</t>
+          <t>Junior Data scientist</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Группа компаний «Триумф»</t>
+          <t>ООО МФК Займ Онлайн</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/25474707?query=Junior%20python%20developer</t>
+          <t>https://pushkino.hh.ru/vacancy/35218725?query=Junior%20python%20developer</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Разработка SPA/Electron приложений. Программирование подсистем для проектирования и визуализации товаров. Разработка компонентов для визуального построения логики, редактора материалов, диаграмм...</t>
+          <t>Несколько сайтов с посещаемостью около 1 млн. посещений в месяц. Большое количество партнеров (телеком операторы, банки, интернет-магазины, онлайн кассы...</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Опыт программирования 3D-графики (WebGL / Three.js или аналоги, OpenGL, OpenCL). Знание Python (Tornado, Django), баз данных (SQLite, MySQL, PostgreSQL...</t>
+          <t>Уверенный пользователь Excel, SQL. Владением одним или несколькими программами (R, Knime, Python). Знание основ теории вероятности, математической статистики, методов анализа...</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Junior WEB/Mobile Аналитик</t>
+          <t>Junior GFN Software Engineer (Gaming)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ПАО МТС Банк</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>до 58 000 руб.</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> NVIDIA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/34536823?query=Junior%20python%20developer</t>
+          <t>https://pushkino.hh.ru/vacancy/35332731?query=Junior%20python%20developer</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Участие в процессе внедрения систем мобильной и веб аналитики. Регулярный анализ данных по поведению и их интерпретация. Анализ обращений клиентов. </t>
+          <t>Test games for compatibility with virtualized environment. Fine-tuning and optimizing game packages for a virtualized environment, ensuring best user...</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Опыт анализа данных с помощью языков (Python, R). Опыт в разработке мобильных или веб приложений (Javascript, Objective-C, Swift, Java...</t>
+          <t xml:space="preserve">Basic understanding of Game Software development and Game Engine work principles. Basic Experience with scripting languages (LUA, Python, Batch). </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Аналитик данных производственных систем (Junior, Middle)</t>
+          <t>Junior Python разработчик</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ОАО НОРЭ</t>
+          <t xml:space="preserve"> amoCRM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>80 000-120 000 руб.</t>
+          <t>40 000-50 000 руб.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/34888083?query=Junior%20python%20developer</t>
+          <t>https://pushkino.hh.ru/vacancy/35291489?query=Junior%20python%20developer</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Визуализация данных с использованием стандартных (Excel, Visio, PowerPoint) и специализированных инструментов (Oracle BI, Tableau, Plotly и пр.), разработка KPI, Dashboards...</t>
+          <t>Задачи, с которыми придется столкнуться в первую очередь: написание тестов/автотестов, решение багов и простых задач. В последствии разработка нового...</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Начальный уровень бизнес-проектирования (BPWin, ARIS, Visio и пр.). - Начальный уровень программирования (SQL, VBA, Python, R). - Опыт работы с инструментами...</t>
+          <t xml:space="preserve">Потребуется: Знание Python (есть практический опыт и результаты, не обязательно коммерческие). Опыт написания SQL запросов (желательно умение работать со связями). </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fullstack Developer (Python/JS)</t>
+          <t>Аналитик-математик / Junior Data Analyst</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ООО РУСЬ-ТУР</t>
+          <t xml:space="preserve"> Связной</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/34990494?query=Junior%20python%20developer</t>
+          <t>https://pushkino.hh.ru/vacancy/30250465?query=Junior%20python%20developer</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Разработка и поддержка системы пользовательских сообщений. Разработка и поддержка системы очередей. Разработка и поддержка системы комментариев. Проектирование REST API. Разработка...</t>
+          <t xml:space="preserve">Постановка прикладных аналитических задач и разработка математических оптимизационных и статистических алгоритмов, прототипирование на языке R (возможно, с элементами C++). </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>строго middle или senior, не junior. - опыт работы с Python и его экосистемой (от 3 лет). - опыт работы с JavaScript...</t>
+          <t xml:space="preserve">Знание языка R (предпочтительно) или Python. Владение принципами построения алгоритмов Machine Learning, Data Mining, Monte Carlo, теоретико-вероятностного моделирования. </t>
         </is>
       </c>
     </row>
@@ -773,232 +769,2740 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Аналитик-математик / Junior Data Analyst</t>
+          <t>Junior python-разработчик</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Связной</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t xml:space="preserve"> BR Lab</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>40 000-80 000 руб.</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/30250465?query=Junior%20python%20developer</t>
+          <t>https://pushkino.hh.ru/vacancy/35214048?query=Junior%20python%20developer</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Постановка прикладных аналитических задач и разработка математических оптимизационных и статистических алгоритмов, прототипирование на языке R (возможно, с элементами C++). </t>
+          <t>Поддержка и доработка существующих парсеров, разработка новых. - Разработка backend (Python, Django) и REST API. - Оптимизация и рефакторинг кода.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Знание языка R (предпочтительно) или Python. Владение принципами построения алгоритмов Machine Learning, Data Mining, Monte Carlo, теоретико-вероятностного моделирования. </t>
+          <t>...паттернов разработки и принципов ООП. Будет плюсом: - Умение работать с Git. - Опыт работы с DRF. - Опыт написания тестов. - Опыт разработки...</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Junior Econometrician / Младший эконометрист</t>
+          <t>Fullstack Developer (Python/JS)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Группа компаний «GroupM», MediaCom</t>
+          <t>ООО РУСЬ-ТУР</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/34967310?query=Junior%20python%20developer</t>
+          <t>https://pushkino.hh.ru/vacancy/34990494?query=Junior%20python%20developer</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сбор и обработка данных. Использование индустриальных софтов для сбора данных. Разработка моделей машинного обучения. Обучение прогнозных моделей и создание сценариев. </t>
+          <t>Разработка и поддержка системы пользовательских сообщений. Разработка и поддержка системы очередей. Разработка и поддержка системы комментариев. Проектирование REST API. Разработка...</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Уверенное владение Python / R или любым другим расширенным пакетом аналитических программ. Знание SQL и опыт работы по крайней мере с...</t>
+          <t>строго middle или senior, не junior. - опыт работы с Python и его экосистемой (от 3 лет). - опыт работы с JavaScript...</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Junior Quant Trader / C# Developer</t>
+          <t>Junior программист C++</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ООО НОВОТЕХ</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t xml:space="preserve"> АРМО, ГК</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>60 000-80 000 руб.</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/35168169?query=Junior%20python%20developer</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>https://pushkino.hh.ru/vacancy/34559224?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Работа в backend/middleware частях проекта видеонаблюдению и других проектов компании.</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">graduated from one of the top technical schools. - knows C#. - knowledge of Python for Data Science is a plus. - </t>
+          <t xml:space="preserve">Опыт разработки в Qt на С++ под Windows/Linux. Уверенные знания С++, STL. Знания ООП. Приветствуется: Умение программировать на Python. </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Младший программист Python</t>
+          <t>Backend разработчик Python / Django (Middle)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QIWI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t xml:space="preserve"> Zonesmart</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>80 000-120 000 руб.</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/35189679?query=Junior%20python%20developer</t>
+          <t>https://pushkino.hh.ru/vacancy/35294939?query=Junior%20python%20developer</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Разработка внутренних информационных систем. Автоматизация текущих.</t>
+          <t>Интеграция сторонних сервисов с помощью API (маркетплейсы, службы доставки, оплата и т.д.). Участие в полном цикле разработки - программирование, тестирование...</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>У тебя высшее образование или ты студент последних курсов и можешь работать полный день. Знаешь Python. Опыт работы с django...</t>
+          <t>Уверенное владение Python (версии 3+). Опыт разработки веб-приложений на Django.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Middle Frontend developer / React, Next.js</t>
+          <t>Junior Quant Trader / C# Developer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KRK Group</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>110 000-160 000 руб.</t>
-        </is>
-      </c>
+          <t>ООО НОВОТЕХ</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/34933455?query=Junior%20python%20developer</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Совместная проектировка фронт части проекта, построение SPA с последующим функционалом PWA. Работать с junior разработчиками, с точки зрения постановки задач...</t>
-        </is>
-      </c>
+          <t>https://pushkino.hh.ru/vacancy/35168169?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Обладающей базовыми организационными способностями. Желающий создать качественный продукт для конечного потребителя. Увлеченный своим делом и постоянно ищущий новые тренды в...</t>
+          <t xml:space="preserve">graduated from one of the top technical schools. - knows C#. - knowledge of Python for Data Science is a plus. - </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Программист-разработчик Python (junior)</t>
+          <t>Разработчик Python (middle / junior)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ростелеком - Центры обработки данных</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>ООО Инспектор Клауд</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>70 000-160 000 руб.</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/35028427?query=Junior%20python%20developer</t>
+          <t>https://pushkino.hh.ru/vacancy/35249707?query=Junior%20python%20developer</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Участие во всех процессах разработки, вклад в разрабатываемый продукт. Участие в обсуждении архитектуры продукта. Разработка backend и frontend на python. </t>
+          <t>...различных сервисов компании. Проектирование и разработка новых модулей ПО. Сотрудничество с командами DevOps, компьютерного зрения, фронтенда, мобильной разработки, клиентской поддержки.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Знание Python 3.5+. Умение писать простые SQL-запросы. Желательно иметь опыт разработки веб-приложений. Опыт работы с Django...</t>
+          <t>Python, Django, SQL, REST APIs. Опыт проектирования ПО, сложившееся понимание качества ПО. Опыт разработки SaaS сервисов -- плюс.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Программист Python</t>
+          <t>Junior Quality &amp; Performance Testing Engineer</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Group-IB</t>
+          <t xml:space="preserve"> NVIDIA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/33599858?query=Junior%20python%20developer</t>
+          <t>https://pushkino.hh.ru/vacancy/35332671?query=Junior%20python%20developer</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Низкоуровневая обработка бинарных файлов. Реализация API к существующим проектам. Работа с СУБД и построение базы данных в рамках проекта. </t>
+          <t>Ensure stability of our performance tests on various types of GPUs and platforms. Ensure the quality of our service releases...</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Опыт программирования на Python, понимание концепций языка и Python way. Знание структур данных, классических алгоритмов и паттернов проектирования. </t>
+          <t>Basic knowledge of Windows, Linux. Experience with Python, Ruby, Go or any other programming language. Good communication skills, ability and...</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Junior backend developer</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ООО Нова</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>50 000-80 000 руб.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35351243?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>В области безопасности (трекеры, система мониторинга и т.п.). В области экологии и защиты окружающей среды (устройства мониторинга окружающей среды...</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Высшее образование(математика или ИТ). Знание Python(3.5+). Опыт работы разработчиком (не менее 3-х лет). </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Junior IT specialist / Стажер IT департамента (команда поддержки торговых систем)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Renaissance Capital</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35282513?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Actively learn &amp; participate in day-to-day activities of the Team! Wide range of interesting tasks in different areas, possibility...</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Knowledge of scripting skills - Linux / Python / Bash + Python or data processing scripts are highly valued. WILL BE GREAT IF...</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Веб-программист (Junior)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Группа компаний «Триумф»</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/25474707?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Разработка SPA/Electron приложений. Программирование подсистем для проектирования и визуализации товаров. Разработка компонентов для визуального построения логики, редактора материалов, диаграмм...</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Опыт программирования 3D-графики (WebGL / Three.js или аналоги, OpenGL, OpenCL). Знание Python (Tornado, Django), баз данных (SQLite, MySQL, PostgreSQL...</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Frontend-разработчик (React)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>ООО РАБЛЗ</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>80 000-180 000 руб.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>https://pushkino.hh.ru/vacancy/35045919?query=Junior%20python%20developer</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">Разрабатывать красивый динамический Frontend для существующих продуктов кампании. Взаимодействовать с коллегами, обсуждать дизайн приложения, предлагать и внедрять технологические решения. </t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Опыт реализации отображения контента в виде stories. Опыт работы на Python/Java. Опыт работы с PostgreSQL, Oracle, MongoDB или другими...</t>
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Аналитик данных производственных систем (Junior, Middle)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ОАО НОРЭ</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>80 000-120 000 руб.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34888083?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Визуализация данных с использованием стандартных (Excel, Visio, PowerPoint) и специализированных инструментов (Oracle BI, Tableau, Plotly и пр.), разработка KPI, Dashboards...</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Начальный уровень бизнес-проектирования (BPWin, ARIS, Visio и пр.). - Начальный уровень программирования (SQL, VBA, Python, R). - Опыт работы с инструментами...</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Младший программист Python</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QIWI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35189679?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Разработка внутренних информационных систем. Автоматизация текущих.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>У тебя высшее образование или ты студент последних курсов и можешь работать полный день. Знаешь Python. Опыт работы с django...</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Junior Econometrician / Младший эконометрист</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Группа компаний «GroupM», MediaCom</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34967310?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сбор и обработка данных. Использование индустриальных софтов для сбора данных. Разработка моделей машинного обучения. Обучение прогнозных моделей и создание сценариев. </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Уверенное владение Python / R или любым другим расширенным пакетом аналитических программ. Знание SQL и опыт работы по крайней мере с...</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Junior WEB/Mobile Аналитик</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ПАО МТС Банк</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>до 58 000 руб.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34536823?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Участие в процессе внедрения систем мобильной и веб аналитики. Регулярный анализ данных по поведению и их интерпретация. Анализ обращений клиентов. </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Опыт анализа данных с помощью языков (Python, R). Опыт в разработке мобильных или веб приложений (Javascript, Objective-C, Swift, Java...</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PHP-программист</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ООО Флекскор</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40 000-90 000 руб.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35198599?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Написание новых программных модулей. Поддержка текущего функционала.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отличные знания Javascript, PHP7+, MySQL, ООП. Опыт работы с git. Знание Python и Unix систем как преимущество. </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Unreal Engine / C++ Developer</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ООО Метроком</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>до 140 000 руб.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34986220?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Написание тестов, рефакторинг и документирование. Взаимодействие с художниками, дизайнерами и другими разработчиками. Участие в отладке внутренних процессов разработки (code review...</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Профильное высшее образование. Опыт разработки под .NET Framework. Знание python, lua. Большим плюсом будет опыт разработки на любых игровых движках.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Junior PHP Developer</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TR Logic LLC</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>от 1 000 EUR</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35355643?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Проектирование, разработка, тестирование и поддержка кода на PHP. Проектирование и улучшение структуры БД для масштабируемых и высоконагруженных сервисов. </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Понимание SOLID, OOP, MVC, Git Flow. Приветствуется опыт в Python, Ruby, TypeScript, Go, Rust. Приветствуется опыт работы с Memcached, Twig. </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Программист Python</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Group-IB</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/33599858?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Низкоуровневая обработка бинарных файлов. Реализация API к существующим проектам. Работа с СУБД и построение базы данных в рамках проекта. </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт программирования на Python, понимание концепций языка и Python way. Знание структур данных, классических алгоритмов и паттернов проектирования. </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Data Scientist (PVH: Tommy Hilfiger / Calvin Klein)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nicotech International</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35193245?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Build robust and future proof Data Science models. Mentor more junior team members, exchange ideas. Be aware about new developments...</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Strong programming experience, proficiency in Python and experience of using popular Data Science packages in practice (numpy, pandas, matplotlib, scipy...</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Frontend разработчик (React)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>АО Семейный доктор</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80 000-200 000 руб.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/33696353?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Разработка SPA интерфейса корпоративной информационной системы. Много нестандартных интерфейсных решений.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ответственность, инициативность, умение работать в команде. Чувство прекрасного. Знание sql/tsql. Python. React Native. MongoDB / Redis / опыт nosql. Docker. </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Преподаватель курса «Web-разработчик на Python»</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ООО Отус</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35346842?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>У нас есть курс по методике преподавания, бесплатный для наших будущих учителей, на котором методисты помогут с составлением программы и...</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Личный PR. Опыт серверной разработки web-приложений на языке Python. Понимание основ фронтендной разработки и протоколов взаимодействия клиента и сервера. </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Junior-разработчик</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AWATERA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35174373?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">На фронтенде React. Git, GitLab, статические анализаторы кода и перекрестное ревью кода в команде. Chai и Mocha для автотестов. </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Знание одного из языков программирования (знание JavaScript или других скриптовых языков (Perl, PHP, Python) будет преимуществом). Хорошая обучаемость и желание...</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Младший С++ разработчик (computer vision)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBYY</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34992606?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Понимать общее устройство компьютера – виртуальная память, библиотеки, процессы, регистры, стек. Опыт работы с Python будет плюсом. Готовность работать от 32...</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Frontend-разработчик (Angular)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ООО РАБЛЗ</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>80 000-180 000 руб.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35050165?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Разрабатывать красивый динамический Frontend для существующих продуктов кампании. Взаимодействовать с коллегами, обсуждать дизайн приложения, предлагать и внедрять технологические решения. </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Опыт реализации отображения контента в виде stories. Опыт работы на Python/Java. Опыт работы с PostgreSQL, Oracle, MongoDB или другими...</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Data scientist</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Positive Technologies</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35206151?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Разработка и модификация моделей поиска аномалий в большом объеме статистических данных. Разработка автоматизированной системы для регулярного анализа данных. </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Владение одним из языков программирования: Python, Scala или Java. Уверенные знания SQL. Опыт администрирования OC Linux. Умение читать чужой код...</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Android-разработчик</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Group-IB</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34212704?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Разработка библиотеки которая будет использована другими (многими) приложениями которые работают на миллионах телефонов уже сейчас. Разработка приложения для тестирования и...</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт размещения собственного приложения в Google Play. Опыт разработки на других языках (например, C, C++, Java, Ruby, Python). </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cyber Threat Intelligence Analyst with turkish language</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Group-IB</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/29321789?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Identifying and monitoring threats on the Internet resources using a specialized system. Analysis of identified threats, detection of major risks...</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Desire to develop in the field of analytics and information security. Knowledge of regular expressions. Knowledge of python.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Младший аналитик-разработчик (Machine learning стек)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hoff</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34801395?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Проверка гипотез и построение моделей машинного обучения прогнозирования потребительского спроса. Интерпретация результатов. Разработка модулей системы прогнозирования потребительского спроса. </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Высшее образование/бакалавриат (Линейная алгебра,Теория вероятностей,Математическая статистика). Знание SQL. Знание Python и библиотек анализа данных: Pandas, NumPy, SCiPy...</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Junior Macro Analyst</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ПАО Совкомбанк</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/33647958?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Macroeconomic models development (inflation, balance of payments, etc.) for Russia and other countries. World corporate profits calculations. On demand ad...</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ability to process huge data flows. Excellent analytical skills. Desire to develop and build expertise in economic research. </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Junior data scientist</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Сбербанк для экспертов</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35062325?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Отдел занимается разработкой моделей валютного, процентного риска, риска ликвидности, прямого и обратного стресс-тестирования, прогнозов макропараметров. В рамках задач отдела...</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Высшее физико-математическое образование (МГУ, МФТИ, МИФИ, НГУ, СпБГУ). - Уверенные знания теории вероятностей и математической статистики. - Знание Python, SQL. - </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ведущий разработчик (Python)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ООО Лаборатория Наносемантика</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>150 000-180 000 руб.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35133097?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>...на тему возможности интеграции. Разработка и поддержка внутренних продуктов. Кодревью младших разработчиков. Участие в архитектурном планировании системы. Менторство младших разработчиков.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт работы от 3 лет в разработке и не менее 1 года в аналогичной должности. Высшее образование. Хорошее знание Python. </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Junior Data Analyst / Data Scientist</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OMD OM Group</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35092100?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Изучать много разных данных от клиентов и поставщиков данных. - Проверять качество входящих и исходящих данных; Искать и реализовывать способы улучшения...</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Опыт работы с данными на R / Python (хотя бы базовые операции, то есть чтение и различные преобразования). - Внимательность и аккуратность...</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Разработчик Python / Python developer</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dentsu Aegis Network Russia</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34859365?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Настройка и администрирование серверов, баз данных, виртуальных окружений. Разработка и реализация архитектуры систем сбора, обработки и анализа данных, систем планирования. </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Высшее математическое образование. Опыт работы на аналогичной позиции. Обязательное знание Python: - объектно-ориентированный подход в программировании. - основные библиотеки (Pandas, Numpy...</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Junior Python-разработчик</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ГЛОНАСС МОБАЙЛ</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>от 60 000 руб.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34997633?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Разработка и поддержке backend’а. Рефакторинг кода. Поиск ошибок, их устранение. Разработка API. Написание тестов (unittest).</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Python, включая многопоточность. Django, django REST framework, djcelery, redis, docker. SQL (PostgreSQL). Git. Tcp/ip, http. Понимание RESTful. </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Junior data analyst (Graduate Program)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ИБМ Восточная Европа/Азия - IBM EE/A</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35061789?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>As a junior advanced analytics specialist at IBM, you will help transform our clients’ data into tangible business value by...</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good knowledge of main machine learning techniques. — At least 1 year of using Python as the main programming language. — </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Junior Data scientist/ Middle data scientist</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ООО ИК СИБИНТЕК</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34242926?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Интересные и сложные Data science задачи с применением прикладной статистики и построением моделей анализа данных на основе Machine Learning. </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Умение работать как с Data Frames, так и с реляционными базами данных. Опыт работы с python, знание библиотек keras/tensorflow...</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Senior Backend Developer/Data Scientist в Команду Performance Advertising</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ВКонтакте</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34230718?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Для разработки — Hadoop, Spark, Python, Scala и собственный язык программирования KPHP. Для работы с моделями машинного обучения — любые фреймворки. </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Опыт в поддержке и администрировании полного цикла продакшн систем машинного обучения от логгирования данных для обучения до онлайн-тестирования новых...</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Machine Learning Research Engineer</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOSCH</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/33710028?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>...recording and collection, supporting the hiring process of interns and juniors, leading data processing and task solution with advanced ML...</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>...in Python, good knowledge in C++ is desirable. Broad experience with standard frameworks and libraries for data science in Python...</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Back-end developer</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DigitalHR</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35042624?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>...и декомпозиции задач от продуктовых команд. Взаимодействие с командами infrastructure, data engineering, r&amp;d. Менторство и обучение junior/middle разработчика.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Опыт разработки сервисов на современных ЯП (что-то из Java/Scala/Kotlin/Go/C#/Ruby/Python/etc). Опыт продумывания архитектуры...</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Младший разработчик АВАР</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IBS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35032020?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Изучение языка программирования АВАР. Участие в коммерческих проектах в роли разработчика.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Знание SQL. Знание одного из языков программирования: C, C#, C++, Python, PHP, Assembler. Опыт работы с SAP ERP на базовом...</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Младший разработчик (С++, ML)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBYY</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34964494?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Создание автоматических тестов для новых и существующих механизмов.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Понимать общее устройство компьютера – виртуальная память, библиотеки, процессы, регистры, стек. Опыт работы с Python будет плюсом. Готовность работать не менее...</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Младший продакт менеджер/Junior product manager</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MOS.RU</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35362130?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Формировать долгосрочные и краткосрочные планы развития продукта. Формулировать задачи для дизайнеров, разработчиков и тестировщиков. Придумывать и описывать новую функциональность. </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Уже имеете небольшой опыт работы продактом или продуктовым аналитиком. Хорошо разбираетесь в теории продуктового менеджмента. Умеете анализировать данные. </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Младший специалист</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ООО Бипланум</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35265030?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">...информационных систем в роли консультанта-разработчика или консультанта-методолога. Анализ бизнес-процессов и их формализация. Разработка проектной документации. </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Аналитический склад ума, структурность, коммуникабельность, проактивность. Опыт разработки на Java, C#, C++, Python, Javascript, VBA. Знание основ реляционных и многомерных...</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Junior программист JavaScript</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АРМО, ГК</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>55 000-70 000 руб.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34503626?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Добавление новой функциональности к существующему Frontend приложению и доработка.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Знание node.js. Готовность выполнить тестовое задание.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Devops-инженер</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Group-IB</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/33419693?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>...и развитие нескольких крупных политик деплоя/обновлений (Ansible+Python). Контейнеризация приложений в Docker, поддержка существующих образов. Решение сопутствующих задачек на Python.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Практический навык программирования на Python. Опыт использования git, Gitlab. Английский язык для беглого чтения документации. Широкий технический кругозор. </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>QA Инженер по автоматизации тестирования на проект TDS Huntbox</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Group-IB</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34842177?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Их устранения и тестирования. ● Контроль соблюдения стандартов разработки ПО, взаимодействие. С разработчиками. ● Ведение документации по тестам. ● Улучшение архитектуры и развитие...</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошее знание теории тестирования, понимание принципов и подходов к. Тестированию. ● Отличное знание Python 3.x. ● Опыт использования webdriver, pytest, allure. ● </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Старший инженер по автоматизированному тестированию / QA Automation Engineer</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITFB Group</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35202084?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>...определение потенциальных рисков. Обучение и наставничество младших специалистов: передача компетенций, контроль качества кода, контроль разработки автоматизированных тестов. Предоставление отчетности о...</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Опыт автоматизации тестирования Web и/или Desktop приложений от 1,5 лет. Уверенное владение языком программирования: Java. Владение SQL на...</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Младший системный администратор/DevOps инженер</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ООО НТ Прогресс</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35335411?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Развитие и поддержка серверной и сетевой инфраструктуры. Мониторинг работоспособности сервисов, анализ инцидентов. Обслуживание рабочих мест пользователей и оргтехники (GNU Linux...</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Приветствуется опыт работы с СУРБД (PostgreSQL, MySQL). Плюсом будет опыт работы с системами CI/CD, GIT, опыт работы с Python.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Junior DevOps-инженер (Machine Learning&amp;Data Analysis)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ООО Когнитив Роботикс</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>80 000-120 000 руб.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35273989?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Development operations в области ML. Поддержание процессов CI/CD в области ML. Подготовка и конвертирование графических и видеоданных ETL. </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Python. CMake. Docker. Jenkins. Навыки администрирования Ubuntu. Основы Machine Learning. Основы Data Analysis. Основы Computer Vision.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Data engineer</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lamoda</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34329188?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Perform code review. Provide mentorship and guidance to junior team members. Design and build next generation best on market e...</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knowledge of version control systems (git). Proficiency in Linux. Experience in Python and Apache Airflow is a huge plus. </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Junior Web-аналитик/Маркетинговый аналитик</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Сhangellenge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34867150?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Строить модели анализа эффективности промо-кампаний. Анализировать эффективность каналов маркетинга. Подготавливать аналитические отчеты и презентации для коллег и руководства компании. </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Плюсом будет являться: навыки программирования на python, опыт работы на позиции web-аналитика, опыт разработки web-проектовов, понимание алгоритмов машинного...</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Senior Data Engineer</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QIWI</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34992175?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Разработка и поддержка автоматизированных регулярных ETL процессов. Разработка микоросервисов, используя модели, подготовленные ML разработчиками, в Kubernetes. Работа с Junior программистами...</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Опыт работы не менее 2 лет с Hadoop, Spark. Наличие реализованных проектов. Опыт построения архитектуры хранилища.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Team-Lead/Senior data scientist</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ПАО МегаФон, Офис</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35239265?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Экспертная и математическая поддержка разработчиков (программистов) аналитических сервисов, сопровождение разработанных и внедренных аналитических сервисов. Регулярные митапы в офисе с внешними...</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Желательные навыки: - Ученая степень физико-математических наук. - Опыт разработки на C++/ Java / Scala. - Опыт работы с библиотеками (OpenCV, Torch, Caffe). - </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Junior Web Analyst</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OMD OM Group</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34246093?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Общение с клиентскими командами и внутренними службами агентств. Разработка автоматизированной отчетности на базе Power BI. Участие в разработке рекламных стратегий...</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">...Google Tag Manager без привлечения разработчиков будет плюсом. Знание GTM, JavaScript. Опыт программирования на Python будет большим плюсом. </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Junior Data Engineer</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OZON.ru Разработка</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35067436?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>MLOps - построение пайплайна решения задач ML от сбора фичей до выкладки моделей в production. Интеграция результатов работы алгоритмов с внешними...</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Linux, Bash. Python. Django, Flask, Aiohttp, FastAPI (хотя бы что-нибудь одно). Pandas, numpy, sklearn. SQL. Алгоритмы, структуры данных. </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Junior Digital Analyst/Data Engineer</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVON</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35093306?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Написание скриптов (Python, R) для автоматизации выгрузок и отчетности. Владение Python и R для целей аналитики и разработки автоматизации сбора...</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Высшее техническое образование (готовы рассматривать студентов от 4-го курса). Опыт работы от 1 года. Владение Excel на продвинутом уровне...</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Junior developer / Support Engineer</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Acronis</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/33445712?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Create best practice guides and other Support documentation for Acronis Developer Network portal. Under the direction of a higher-level...</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ability to analyze technical issues and to convey technical information effectively. Programming experience in Python and/or PHP. </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Senior back-end developer</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RedStone Capital</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34004177?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Доработка существующего продукта. Взаимодействие с фронтендом и архитектором других микросервисов при проектировании API. Помощь и поддержка Junior/middle разработчиков.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Глубокое знание одного из языков Ruby, Python, NodeJS, Golang. Опыт разработки на Ruby или Python или Golang. БД SQL и...</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>QA Инженер по автоматизации тестирования на проект TDS Huntpoint</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Group-IB</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34842162?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Их устранения и тестирования. ● Контроль соблюдения стандартов разработки ПО, взаимодействие. С разработчиками. ● Ведение документации по тестам. ● Улучшение архитектуры и развитие...</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошее знание теории тестирования, понимание принципов и подходов к. Тестированию. ● Отличное знание Python 3.x. ● Опыт использования pytest, allure. ● </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Младший количественный аналитик (стажировка)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ООО АТОН</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/32313953?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Разработка стратегий для торговли финансовыми инструментами с использованием Python. Поиск идей для извлечения прибыли на фондовом рынке. Участие в создании...</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Быть готовым к тестированию по темам: теория вероятности, численные методы, статистика, Python. Знание Bloomberg, SQL, Git – плюс. Будет плюсом наличие...</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Младший инженер по внедрению и техподдержке телекоммуникационного биллинга (Зеленоград)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Латера</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>от 60 000 руб.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34929169?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>участвовать в решении сложных задач совместно с разработчиками. — общаться с клиентами: консультировать по работе и настройке системы (преимущественно в письменном...</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">умение установить и настроить приложение в консоли Linux. — знание основ языка запросов SQL. Опыт работы с любой СУБД будет плюсом. — </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Младший инженер-программист</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ай-Теко (I-Teco)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34944354?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Внедрение решений и доработка ИТ-систем автоматизации в соответствии с требованиями заказчика(разработка интерфейса, схемы интеграций, логики). Интеграция внедряемых решений...</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Высшее техническое образование или 4-5 курс в техническом ВУЗе. Желание развиваться в указанной предметной области. Быстрая обучаемость. </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Senior analyst</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lamoda</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35330406?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Cистемная аналитика по обогащению данных. Контроль корректности данных. Организует и контролирует работу младших аналитиков отдела, участвует в организации их обучения.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Опыт работы с системами отчётности – SAP BO, Tableu, PowerBI, другие. Знание R или Python на уровне обработки данных.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ведущий Java-разработчик</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Московский филиал АО ЦентрИнформ</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35171376?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>...будет включать разработку новых и поддержка существующих микросервисов; распределение работы внутри команды; проверку качества кода и обучение junior-разработчиков, а...</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт работы с микросервисными архитектурами. Опыт работы с высоконагруженными системами. Уверенное знание Java 11 и современных фреймворков (Spring Boot). </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Data Science Director</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Visa Inc</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35282509?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>...to lead a couple of junior analysts to manage BAU deliverables. Drive and lead function development strategy together with Data...</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Hands on experience with data analytics/programming tools - SAS/Hive/R/SQL/Python. Knowledge of advanced statistical techniques and concepts...</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Junior Actuary</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KPMG</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35263261?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Analysis of the requirements of IFRS 17 and Solvency II regarding actuarial and accounting elements. Development of actuarial and financial...</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Programming skills in Excel VBA, R, Python will be an advantage. Strong presentation and interpersonal skills, written and verbal communication...</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Младший Консультант (BI, OLAP)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ООО ИНТЕР РАО ИТ</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35274446?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Сопровождение и развитие систем бизнес-аналитики. Участие в проектах по внедрению или сопровождению систем BI в качестве консультанта, разработчика или...</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>...обработки и анализа больших массивов данных. Навыки работы с реляционными базами данных (Oracle DB, MS SQL). Знание R. Знание Python.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Data инженер</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Сбербанк для экспертов</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/33808338?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Разрабатывать витрины данных для задач моделирования, создавать выборки для обучения и тестирования моделей. Разрабатывать алгоритмы трансформации и очистки данных. </t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Знание какого-либо языка программирования (ООП), дополнительный плюс - знание Python и/или R. Опыт работы от 2х лет. </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>QA Инженер по автоматизации тестирования на проект TDS Sensor</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Group-IB</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/33483136?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Их устранения и тестирования. ● Контроль соблюдения стандартов разработки ПО, взаимодействие. С разработчиками, корректировка сроков задач. ● Ведение документации по тестам, составление...</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TCP/IP, протоколы прикладного уровня). ● Опыт написания unit-тестов. ● Знание стандартов разработки ПО и умение их применять на практике. ● </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Исследователь</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ОАО ИнфоТеКС</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35155802?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Выработка рекомендаций к устранению обнаруженных дефектов ПО. Разработка доказательных программных прототипов для найденных уязвимостей. Доработка автоматизированных средств анализа исходных кодов...</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Знание языков программирования и наличие опыта разработки (C/C++, C#, Java). Не менее 2-х языков уровень не ниже «junior». </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Младший аналитик (Поиск)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mail.Ru Group, Другое</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34888893?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Выдвижение и отработка гипотез. Проведение тестов, оценка результатов, подготовка выводов. Визуализация метрик, создание дашбордов. Проработка новых метрик, которые будут отражать...</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Высшее техническое образование. Опыт проведения и оценки A/B-тестов. Опыт программирования на языках Python/R. Знание теории вероятности и...</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Младший специалист отдела специального программного обеспечения (ОСПО)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ЗАО КБ Проминжиниринг</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>от 50 000 руб.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34847611?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Разработка приложений, работающих под управлением Linux/Windows. Написание программной документации.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">...разработки под Linux (Debian). Опыт разработки приложений с пользовательским интерфейсом. Умение разбираться в чужом коде. GitLab. Опыт разработки на Python. </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Ведущий веб-программист</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>АО НТЦ ЭЛИНС</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>от 120 000 руб.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34810819?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ревью когда и консультирование младших разработчиков. Разработка и рефакторинг наиболее сложной функциональности, в том числе разработка модульных тестов. </t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт работы в аналогичной должности от 6 лет. Опыт разработки веб-приложений на одном из языков : ruby, php, python. </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Системный администратор / Junior DevOps</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Программный Продукт, ИТ-компания</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35208972?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Администрирование продуктов компании IBM (WebSphere, Connections, FileNet, Docs, WEX и т.д.). Разработка небольших приложений, для выполнения несложных операций на...</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Java, SQL, HTML, CSS, JavaScript, Python - уровень от базового до среднего. Опыт анализа логов, выявления неисправностей. Опыт работы с WebSphere...</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Senior and middle DevOps</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Align Technology</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/33416973?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Автоматизация и поддержка процессов разработки/тестирования/выпуска. Участие в управлении средой разработки. Развитие docker-based инфраструктуры и процессов для поддержания...</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт разработки на одном из языков: Python (используем для разработки DevOps утилит), Ruby,Java, Groovy, Go, Bash, JavaScript, Perl, etc. </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Database Administrator (PostgreSQL)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Coins.ph</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>3 700-6 500 USD</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35238896?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Provide mentorship to group members and help develop and support mid and junior level staff. Training engineering team. </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Skills to write some code to fulfil DBA team needs (bash, python, go, lua). Docker and related technologies (Kubernetes, docker...</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Старший консультант группы финансового моделирования</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EY (Эрнст энд Янг)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35232868?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>...оценки экономической эффективности проектов до разработки моделей для стратегического планирования и сценарного прогнозирования. ОБЯЗАННОСТИ: Разработка финансовых моделей различной степени сложности...</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Опыт взаимодействия с кросс-функциональной командой и реализации проектов от стадии разработки идеи до внедрения в эксплуатацию. Знание систем планирования...</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Junior Аналитик (отдел скоринга)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ОТП Банк, АО (OTP bank)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34940365?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>...python как для анализа данных и моделировании так и для визуалиции. В инструментах airflow и gitlab. Разработка скоринговых карт. Разработка...</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Хорошая математическая база. Понимание теории вероятности/математической статистики. Английский (Средний уровень). Python. Sql. Предиктивные модели: знание и понимание методов машинного...</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Инженер по нагрузочному тестированию (SberDevices)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Сбербанк для экспертов</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/33933798?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Автоматизировать типовые задачи разработки или тестирования по своему направлению. Проверять работу младших коллег по разработке или тестированию АС или ПО. </t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Опыт работы с консолью Linux. Уверенное владение хотя бы одним языком программирования (C, C++, C#, Java, Python, Go, JavaScript).</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Build / Release Engineer (Tooling)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Align Technology</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/32757110?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Поддержка текущего стека систем и соответствующей инфраструктуры (Git, JIRA, Bamboo, Confluence, Fisheye, HPQC, Sonar, Incredibuild, etc). Разработка инструментов, фреймворков и...</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Опыт работы инженером, тестировщиком или администратором систем автоматизации цикла разработки ПО. Более 1 года администрирования системы на базе Linux (для...</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Инженер DevOps</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Сбербанк для экспертов</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35219192?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Технологии и инструменты разработки, что мы используем: Сборка: Jenkins. Хранение артефактов: Nexus. Анализ кода: Sonar. Управление конфигурациями: Ansible. </t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Чёткое понимание цикла разработки ПО (работа с требованиями, ведение процесса от разработки до внедрения, несколькими контурами). Опыт работы (продвинутый пользователь...</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Security-аналитик</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Group-IB</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34854433?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Реализация выбранных путей детектирования в виде логики в рамках существующего фреймворка на языке Python. Самостоятельных поиск угловых ситуаций, способов обхода...</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Владение языком python для решения повседневных задач реверс-инженера. Знание ассемблера Arm, x64. Опыт разработки под Windows/Linux/Android...</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Security Researcher ICS / IoT</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Лаборатория Касперского</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34422131?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Выступление с презентациями / докладами на тематических конференциях. Участие в разработке, организации и проведении тренингов. Участие в разработке, организации и проведении...</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Знание одного из скриптовых языков программирования (Python, Perl, Ruby, etc.). Знание теоретических основ информационной безопасности. Технический английский. Умение разбирать неизвестные...</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Junior Product/Customer Journey Expert</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Сбербанк для экспертов</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35129576?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Поиск инсайтов, разработка концепций продуктов на основе инсайтов, оценка концепций, проверка гипотез. Разработка бизнес-стратегии, планов работы с сегментом на...</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Навыки разработки бизнес-стратегии, стратегии продукта (опыт участия и призовые места в кейс-чемпионатах будет большим плюсом). Опыт самостоятельного ведения...</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Младший/старший научный сотрудник (электрофизические свойства материалов)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ФГУП Центральный научно-исследовательский институт химии и механики</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35050633?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Проведение измерений электрофизических свойств. Проектирование оснастки для экспериментальной деятельности. Обработка результатов измерений, разработка программ и методик измерений, оценка погрешности измерений.</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>...написание программного кода обработки и визуализации данных. Знание программ: MATLAB, Python или любой другой язык программирования; Ansoft,HFSS, FEKO, CSTstudio...</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>DevOps инженер</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АБСОЛЮТ БАНК</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35111426?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Поддержка серверной инфраструктуры проекта (linux/docker/BPM Camunda/PostgreSQL). Реализация системы мониторинга и обеспечение непрерывной работы конвейера. Автоматизация рутинных задач...</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт администрирования PostgreSQL. Понимание скриптовых языков: bash, python. Опыт работы с системами мониторинга и логирования: Monit, Grafana, Graylog. </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Junior Customer Success Specialist (Graduate program)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Refinitiv</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35150118?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Сбор обратной связи по продуктам, обработка отзывов, презентация результатов. Построение отношений с конечными пользователями, разработка предложений по тренингам, направленным на...</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Выпускник бакалавриата или магистратуры 2018/2019 года с возможностью работать полный рабочий день. Образование в сфере экономики и финансов, бизнес...</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Junior Project manager</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Metacommerce</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35078544?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Управлять командой, общаться с заказчиками. Контролировать проектные сроки, исполнения договоров. Внедрять и адаптировать внутренние и внешние проекты.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Опыт ведения переговоров и деловой переписки. Знание современных методик гибкой методологии разработки ПО (Kanban, Scrum). Понимание CI, методик автоматизированного развертывания...</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Разработчик в команду Data Science (PVH: Tommy Hilfiger / Calvin Klein)</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nicotech International</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35038138?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>...into the business is required. Mentor more junior team members, exchange ideas. Be aware about new trends in IT development.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Experience with backend technologies in either Python3 or Nodejs. Mobile development experience is a plus. Experience of deploying Deep...</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Младший инженер по информационной безопасности</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> КРОК</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35068677?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Изучение передовых решений в области защиты информации, подготовка сравнений и описаний. Участие в разработке политик ИБ, регламентов и инструкций. </t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Готовность к командировкам. Опыт работы со средствами защиты информации (FW, VPN, SIEM, PAM.). Опыт разработки на языках Python, Java. </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Frontend React developer</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Group-IB</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/34677910?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Разработка фронтовой части объемного web-приложения (SPA).</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошее владение стеком ReactJS + MobX, сборка WebPack. Знание английского языка (технический). Знание бэкенд языков (преимущественно - python/php). </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ИТ специалист</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ООО DARVOL</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35079414?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Принимать, регистрировать и работать по заявкам сотрудников. Осуществлять техническую поддержку пользователей (OS, Mac OS, MS Office, WiFi и т.д.). </t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">...знание принципов организации ЛВС, СКС. Знание PYTHON на уровне Junior / знание R на уровне Junior. Знание фреймворков Django, WordPress. </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Techsupport engineer/Junior system administrator</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXANTE</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/33573805?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Конфигурацию разнообразного самописного софта. Автоматизацию (на Python) рутинных задач. Общение (письменное) с контрагентами по всему миру. Помощь клиентам мудрым советом...</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Умеете работать с командной строкой Unix/Linux. Знаете устройство компьютерных сетей. Умеете в Python или хотите его самостоятельно изучить. </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Младший системный аналитик / Cистемный аналитик</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ООО Кей Групп</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://pushkino.hh.ru/vacancy/35101425?query=Junior%20python%20developer</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Ставить задачи и отвечать на вопросы разработчиков. Осуществлять функциональное тестирование и авторскую приемку. Самостоятельно разбираться во взаимодействии с внешними и...</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Опыт написания SQL-запросов. Английский не ниже intermediate. Опыт взаимодействия с командой разработки. Опыт реализации интеграционных проектов. Опыт использования Git...</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/vacancyxls.xlsx
+++ b/vacancyxls.xlsx
@@ -709,60 +709,60 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Аналитик-математик / Junior Data Analyst</t>
+          <t>Junior DevOps Engineer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Связной</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t xml:space="preserve"> Black Wall Group</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>90 000-120 000 руб.</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/30250465?query=Junior%20python%20developer</t>
+          <t>https://pushkino.hh.ru/vacancy/34980785?query=Junior%20python%20developer</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Постановка прикладных аналитических задач и разработка математических оптимизационных и статистических алгоритмов, прототипирование на языке R (возможно, с элементами C++). </t>
+          <t xml:space="preserve">Работаем в небольших командах (3-4 человека) над сложными и интересными проектами, развиваем и поддерживаем их. ⁃ Настройка и поддержание инфраструктуры. ⁃ </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Знание языка R (предпочтительно) или Python. Владение принципами построения алгоритмов Machine Learning, Data Mining, Monte Carlo, теоретико-вероятностного моделирования. </t>
+          <t>Умение работать с google и общая адекватность. Будет плюсом: Знание Python / PHP / JavaScript. Навыки автоматизированного тестирования. Навыки или желание научиться...</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Junior DevOps Engineer</t>
+          <t>Аналитик-математик / Junior Data Analyst</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black Wall Group</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>90 000-120 000 руб.</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Связной</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://pushkino.hh.ru/vacancy/34980785?query=Junior%20python%20developer</t>
+          <t>https://pushkino.hh.ru/vacancy/30250465?query=Junior%20python%20developer</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Работаем в небольших командах (3-4 человека) над сложными и интересными проектами, развиваем и поддерживаем их. ⁃ Настройка и поддержание инфраструктуры. ⁃ </t>
+          <t xml:space="preserve">Постановка прикладных аналитических задач и разработка математических оптимизационных и статистических алгоритмов, прототипирование на языке R (возможно, с элементами C++). </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Умение работать с google и общая адекватность. Будет плюсом: Знание Python / PHP / JavaScript. Навыки автоматизированного тестирования. Навыки или желание научиться...</t>
+          <t xml:space="preserve">Знание языка R (предпочтительно) или Python. Владение принципами построения алгоритмов Machine Learning, Data Mining, Monte Carlo, теоретико-вероятностного моделирования. </t>
         </is>
       </c>
     </row>
